--- a/Repository/Databases/databank.worldbank.org_health_population.xlsx
+++ b/Repository/Databases/databank.worldbank.org_health_population.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Seal Report RepositoryOLD2\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671ABEC9-5F7D-4B59-8837-C949CE0A71BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_Health_Population" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,14 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
